--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -61,190 +58,187 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>one</t>
@@ -617,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2790697674418605</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8671875</v>
+        <v>0.84375</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2525252525252525</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,69 +848,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8405797101449275</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+      <c r="M6">
+        <v>58</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.8297213622291022</v>
-      </c>
-      <c r="L6">
-        <v>536</v>
-      </c>
-      <c r="M6">
-        <v>536</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1351351351351351</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>160</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.8188854489164087</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,21 +898,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7532467532467533</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7186147186147186</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6875</v>
+        <v>0.6926406926406926</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1063,16 +1033,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6576271186440678</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L13">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M13">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,47 +1054,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>0.6575342465753424</v>
+      </c>
+      <c r="L14">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>48</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>25</v>
-      </c>
-      <c r="K14">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L14">
-        <v>46</v>
-      </c>
-      <c r="M14">
-        <v>46</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6396468699839486</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L15">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="M15">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6323529411764706</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5774647887323944</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5726495726495726</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.543859649122807</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5277777777777778</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L24">
         <v>35</v>
       </c>
-      <c r="K24">
-        <v>0.5180722891566265</v>
-      </c>
-      <c r="L24">
-        <v>43</v>
-      </c>
       <c r="M24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.51</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5096153846153846</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5037593984962406</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
         <v>0.5</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4910179640718563</v>
+        <v>0.47</v>
       </c>
       <c r="L29">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4761904761904762</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4444444444444444</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4156626506024096</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L32">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M32">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,47 +1548,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>44</v>
-      </c>
-      <c r="K33">
-        <v>0.3934426229508197</v>
-      </c>
-      <c r="L33">
-        <v>24</v>
-      </c>
-      <c r="M33">
-        <v>24</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3735408560311284</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L34">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="M34">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>161</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3684210526315789</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1656,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3627450980392157</v>
+        <v>0.377431906614786</v>
       </c>
       <c r="L36">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="M36">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1682,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3529411764705883</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1708,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3438356164383561</v>
+        <v>0.3493150684931507</v>
       </c>
       <c r="L38">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M38">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1734,47 +1704,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>50</v>
-      </c>
-      <c r="K39">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="L39">
-        <v>36</v>
-      </c>
-      <c r="M39">
-        <v>36</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3157894736842105</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1786,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3026315789473684</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1812,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2980132450331126</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1838,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2857142857142857</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1864,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2661870503597122</v>
+        <v>0.2626480086114101</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1890,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>102</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2540365984930033</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L45">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1916,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>693</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2392344497607655</v>
+        <v>0.25</v>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1942,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2382445141065831</v>
+        <v>0.2392344497607655</v>
       </c>
       <c r="L47">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1968,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>243</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2222222222222222</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1994,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>84</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.1969309462915601</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L49">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2020,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>628</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1827814569536424</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L50">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="M50">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2046,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>617</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.174496644295302</v>
+        <v>0.1879795396419437</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2072,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>123</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1524390243902439</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2098,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1470588235294118</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2124,73 +2094,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>203</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1463414634146341</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M54">
         <v>25</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.145985401459854</v>
+        <v>0.1432432432432433</v>
       </c>
       <c r="L55">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M55">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1318181818181818</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L56">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2202,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1299435028248588</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2228,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>154</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1237113402061856</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2254,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1185983827493261</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L59">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2280,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>327</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.0962962962962963</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2306,15 +2276,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>244</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.09429824561403509</v>
+        <v>0.1026252983293556</v>
       </c>
       <c r="L61">
         <v>43</v>
@@ -2332,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>413</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.09307875894988067</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L62">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2358,125 +2328,125 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>380</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.08856088560885608</v>
+        <v>0.08034433285509325</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>247</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.08493150684931507</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.07736389684813753</v>
+        <v>0.07383177570093458</v>
       </c>
       <c r="L65">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="M65">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>644</v>
+        <v>991</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.07196261682242991</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L66">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>993</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.06091370558375635</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2488,59 +2458,33 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>370</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.05740740740740741</v>
+        <v>0.03722943722943723</v>
       </c>
       <c r="L68">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M68">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K69">
-        <v>0.04152249134948097</v>
-      </c>
-      <c r="L69">
-        <v>48</v>
-      </c>
-      <c r="M69">
-        <v>49</v>
-      </c>
-      <c r="N69">
-        <v>0.98</v>
-      </c>
-      <c r="O69">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
